--- a/va_facility_data_2025-02-20/Wayne County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wayne%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wayne County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wayne%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re73966bccbb24bff819c3a23b03fe53c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R64daf41b7c8b4d43a5a2396a73793c8a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R99c56bd7c9b54036adb67dfebb4949e2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb5e25777dcfd476c9a8afebdc1de093a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f376ecfbce24cecbf144f2c1b5f00f2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R31b43fec75ae4f03b92f86bc61538f99"/>
   </x:sheets>
 </x:workbook>
 </file>
